--- a/Clients/Murtaza Lace.xlsx
+++ b/Clients/Murtaza Lace.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Mian-Industries\Clients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z\Documents\Mian-Industries\Clients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F1205-D641-4271-8453-D59D5C50E1D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA9E31-947B-405D-A3B8-8B57876FF759}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,7 +669,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -762,13 +762,11 @@
       <c r="A6" s="9"/>
       <c r="B6" s="16"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="12">
-        <v>10</v>
-      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
@@ -779,7 +777,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
@@ -790,7 +788,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
@@ -801,7 +799,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
@@ -812,7 +810,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
@@ -823,7 +821,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
@@ -834,7 +832,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
@@ -845,7 +843,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
@@ -856,7 +854,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
@@ -867,7 +865,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
@@ -878,7 +876,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
@@ -889,7 +887,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -900,7 +898,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
@@ -911,7 +909,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
@@ -922,7 +920,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -933,7 +931,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
@@ -944,7 +942,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
@@ -955,7 +953,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
@@ -966,7 +964,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
@@ -977,7 +975,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
@@ -988,7 +986,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
@@ -999,7 +997,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
@@ -1010,7 +1008,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
@@ -1021,7 +1019,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
@@ -1032,7 +1030,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
@@ -1043,7 +1041,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
@@ -1054,7 +1052,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
@@ -1065,7 +1063,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -1076,7 +1074,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -1087,7 +1085,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
@@ -1098,7 +1096,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
@@ -1109,7 +1107,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
@@ -1120,7 +1118,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -1131,7 +1129,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1142,7 +1140,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1153,7 +1151,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1164,7 +1162,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1175,7 +1173,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1186,7 +1184,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1197,7 +1195,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1208,7 +1206,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1219,7 +1217,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1230,7 +1228,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1241,7 +1239,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1252,7 +1250,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1263,7 +1261,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1274,7 +1272,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1285,7 +1283,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1296,7 +1294,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1307,7 +1305,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1318,7 +1316,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1329,7 +1327,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1340,7 +1338,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1351,7 +1349,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1362,7 +1360,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1373,7 +1371,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1384,7 +1382,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1395,7 +1393,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1406,7 +1404,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1417,7 +1415,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1428,7 +1426,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1439,7 +1437,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1450,7 +1448,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1461,7 +1459,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1472,7 +1470,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1483,7 +1481,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1494,7 +1492,7 @@
       <c r="E72" s="13"/>
       <c r="F72" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1505,7 +1503,7 @@
       <c r="E73" s="13"/>
       <c r="F73" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1516,7 +1514,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1527,7 +1525,7 @@
       <c r="E75" s="13"/>
       <c r="F75" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1538,7 +1536,7 @@
       <c r="E76" s="13"/>
       <c r="F76" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1549,7 +1547,7 @@
       <c r="E77" s="13"/>
       <c r="F77" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1560,7 +1558,7 @@
       <c r="E78" s="13"/>
       <c r="F78" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1571,7 +1569,7 @@
       <c r="E79" s="13"/>
       <c r="F79" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1582,7 +1580,7 @@
       <c r="E80" s="13"/>
       <c r="F80" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1593,7 +1591,7 @@
       <c r="E81" s="13"/>
       <c r="F81" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -1604,7 +1602,7 @@
       <c r="E82" s="13"/>
       <c r="F82" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -1615,7 +1613,7 @@
       <c r="E83" s="13"/>
       <c r="F83" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -1626,7 +1624,7 @@
       <c r="E84" s="13"/>
       <c r="F84" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -1637,7 +1635,7 @@
       <c r="E85" s="13"/>
       <c r="F85" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -1648,7 +1646,7 @@
       <c r="E86" s="13"/>
       <c r="F86" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -1659,7 +1657,7 @@
       <c r="E87" s="13"/>
       <c r="F87" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -1670,7 +1668,7 @@
       <c r="E88" s="13"/>
       <c r="F88" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -1680,7 +1678,7 @@
       <c r="E89" s="13"/>
       <c r="F89" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -1691,7 +1689,7 @@
       <c r="E90" s="13"/>
       <c r="F90" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -1702,7 +1700,7 @@
       <c r="E91" s="13"/>
       <c r="F91" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -1713,7 +1711,7 @@
       <c r="E92" s="13"/>
       <c r="F92" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
@@ -1724,7 +1722,7 @@
       <c r="E93" s="13"/>
       <c r="F93" s="8">
         <f t="shared" si="0"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
@@ -1735,12 +1733,12 @@
       <c r="C94" s="27"/>
       <c r="D94" s="18">
         <f>SUM(D4:D93)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="8">
         <f t="shared" ref="F94:F95" si="1">F92</f>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
@@ -1756,7 +1754,7 @@
       </c>
       <c r="F95" s="8">
         <f t="shared" si="1"/>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1">
@@ -1769,7 +1767,7 @@
       <c r="E96" s="33"/>
       <c r="F96" s="21">
         <f>F93</f>
-        <v>499990</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.25" customHeight="1"/>

--- a/Clients/Murtaza Lace.xlsx
+++ b/Clients/Murtaza Lace.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z\Documents\Mian-Industries\Clients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mian-Industries\Clients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA9E31-947B-405D-A3B8-8B57876FF759}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Up untill 2025" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -665,20 +664,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" activeCellId="1" sqref="B4:B5 C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">

--- a/Clients/Murtaza Lace.xlsx
+++ b/Clients/Murtaza Lace.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mian-Industries\Clients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z\Documents\Mian-Industries\Clients\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA9E31-947B-405D-A3B8-8B57876FF759}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Up untill 2025" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -664,20 +665,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="B4:B5 C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
